--- a/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 днрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 днрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\19,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5C565-5D9B-416B-B210-19A52C2F8717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2F306-1C55-48E3-A992-F336C1F7689A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AC$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -292,10 +292,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3220,7 +3224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomLeft" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3682,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="AB8" s="17">
-        <f t="shared" ref="AB7:AB52" si="9">Q8/AA8</f>
+        <f t="shared" ref="AB8:AB45" si="9">Q8/AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2">
